--- a/DS_ALGOS_LIST.xlsx
+++ b/DS_ALGOS_LIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinod\IdeaProjects\DS-ALGOS-TECHIE-DELIGHT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5A245C-EA02-4038-94F4-3866706C7F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312B871C-C1A6-46E7-B6DD-79ED20DA2DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="708">
   <si>
     <t>Task Name</t>
   </si>
@@ -2144,6 +2144,15 @@
   </si>
   <si>
     <t>Tag</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>matrix</t>
   </si>
 </sst>
 </file>
@@ -2538,7 +2547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -2551,7 +2560,8 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,8 +2920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBD5479-0BE9-48B3-8B73-CAE618F53A6B}">
   <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G170"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3811,10 +3822,18 @@
       <c r="C59" s="2">
         <v>58</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="12"/>
+      <c r="D59" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
@@ -5491,7 +5510,8 @@
   <dimension ref="A1:G353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G353"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10814,7 +10834,8 @@
   <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DS_ALGOS_LIST.xlsx
+++ b/DS_ALGOS_LIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinod\IdeaProjects\DS-ALGOS-TECHIE-DELIGHT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312B871C-C1A6-46E7-B6DD-79ED20DA2DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8431E829-4F36-40E1-AC69-DDE02D7182F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="709">
   <si>
     <t>Task Name</t>
   </si>
@@ -2153,6 +2153,9 @@
   </si>
   <si>
     <t>matrix</t>
+  </si>
+  <si>
+    <t>array</t>
   </si>
 </sst>
 </file>
@@ -2920,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBD5479-0BE9-48B3-8B73-CAE618F53A6B}">
   <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
@@ -5509,9 +5512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75DD02C-FB33-40C5-AC7D-D19C09480687}">
   <dimension ref="A1:G353"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6409,10 +6412,18 @@
       <c r="C59" s="2">
         <v>58</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="12"/>
+      <c r="D59" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="60" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
